--- a/output.xlsx
+++ b/output.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE33"/>
+  <dimension ref="A1:AE34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,16 +616,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>M042023120400000108</t>
+          <t>M042023120400000193</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>RCPA001020</t>
+          <t>RCPA003976</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -644,31 +644,31 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2023-12-04 07:06:08</t>
+          <t>2023-12-04 07:55:26</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>RCDHL1206</t>
+          <t>RCDHL1268</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>RCSI0047</t>
+          <t>RCSI0075</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-12-04 07:14:10</t>
+          <t>2023-12-04 07:57:05</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>RCDHL1206</t>
+          <t>RCDHL1268</t>
         </is>
       </c>
       <c r="Q2" s="2" t="n">
@@ -679,43 +679,29 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2023-12-04 07:14:53</t>
+          <t>2023-12-04 07:59:31</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>RCDHL0147</t>
+          <t>RCDHL0222</t>
         </is>
       </c>
       <c r="U2" s="2" t="n">
         <v>-146084.533900463</v>
       </c>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:49:13</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>SPglp2WH1656</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:54:06</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:57:49</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>SPglp2WH1942</t>
-        </is>
-      </c>
+      <c r="W2" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="Z2" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -723,7 +709,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -731,8 +717,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE2" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -757,16 +745,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>M042023120400000112</t>
+          <t>M042023120400000180</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>RCBAGS0021511</t>
+          <t>RCPA004093</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -785,27 +773,31 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2023-12-04 07:11:15</t>
+          <t>2023-12-04 07:52:12</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>T-sort</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
+          <t>RCDHL0356</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>RCSI0031</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-12-04 07:17:32</t>
+          <t>2023-12-04 07:56:02</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>T-sort</t>
+          <t>RCDHL0356</t>
         </is>
       </c>
       <c r="Q3" s="2" t="n">
@@ -816,43 +808,29 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2023-12-04 07:25:38</t>
+          <t>2023-12-04 07:59:22</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>RCDHL0366</t>
+          <t>RCDHL0222</t>
         </is>
       </c>
       <c r="U3" s="2" t="n">
         <v>-146084.533900463</v>
       </c>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:47:25</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>SPglp2WH1656</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:53:54</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:56:13</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>SPglp2WH1412</t>
-        </is>
-      </c>
+      <c r="W3" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="Z3" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -860,7 +838,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -868,8 +846,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE3" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -894,16 +874,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>M042023120400000117</t>
+          <t>M042023120400000177</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>RCPA001978</t>
+          <t>RCPA000708</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -922,31 +902,31 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2023-12-04 07:15:01</t>
+          <t>2023-12-04 07:52:04</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>RCDHL0300</t>
+          <t>RCDHL0614</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>RCSI0019</t>
+          <t>RCSI0020</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-12-04 07:18:04</t>
+          <t>2023-12-04 07:55:50</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>RCDHL0300</t>
+          <t>RCDHL0614</t>
         </is>
       </c>
       <c r="Q4" s="2" t="n">
@@ -957,43 +937,29 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2023-12-04 07:22:10</t>
+          <t>2023-12-04 07:59:06</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>RCDHL0348</t>
+          <t>RCDHL0222</t>
         </is>
       </c>
       <c r="U4" s="2" t="n">
         <v>-146084.533900463</v>
       </c>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:48:23</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>SPglp2WH1656</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:51:50</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:53:31</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>SPglp2WH1953</t>
-        </is>
-      </c>
+      <c r="W4" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="Z4" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1001,7 +967,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1009,8 +975,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE4" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -1035,16 +1003,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>M042023120400000119</t>
+          <t>M042023120300004068</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>RCPA002481</t>
+          <t>RCBAGS0002273</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1063,31 +1031,27 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2023-12-04 07:16:19</t>
+          <t>2023-12-02 20:49:18</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>RCDHL1269</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>RCSI0030</t>
-        </is>
-      </c>
+          <t>T-sort</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-12-04 07:27:52</t>
+          <t>2023-12-02 21:48:17</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>RCDHL1269</t>
+          <t>T-sort</t>
         </is>
       </c>
       <c r="Q5" s="2" t="n">
@@ -1098,43 +1062,29 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2023-12-04 07:31:02</t>
+          <t>2023-12-04 07:58:53</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>RCDHL0348</t>
+          <t>RCDHL0713</t>
         </is>
       </c>
       <c r="U5" s="2" t="n">
         <v>-146084.533900463</v>
       </c>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:47:59</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>SPglp2WH1656</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:52:27</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:52:27</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>SPglp2WH1975</t>
-        </is>
-      </c>
+      <c r="W5" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="Z5" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1142,7 +1092,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1150,8 +1100,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE5" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1176,16 +1128,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>M042023120400000101</t>
+          <t>M042023120400000173</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>RCPA001190</t>
+          <t>RCPA003749</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1204,31 +1156,31 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2023-12-04 07:00:48</t>
+          <t>2023-12-04 07:50:55</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>RCDHL1248</t>
+          <t>RCDHL1276</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>RCSI0013</t>
+          <t>RCSI0032</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-12-04 07:11:55</t>
+          <t>2023-12-04 07:54:49</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>RCDHL1248</t>
+          <t>RCDHL1276</t>
         </is>
       </c>
       <c r="Q6" s="2" t="n">
@@ -1239,43 +1191,29 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2023-12-04 07:15:45</t>
+          <t>2023-12-04 07:57:56</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>RCDHL0366</t>
+          <t>RCDHL0222</t>
         </is>
       </c>
       <c r="U6" s="2" t="n">
         <v>-146084.533900463</v>
       </c>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:48:46</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>SPglp2WH1656</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:49:59</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:49:59</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>SPglp2WH1949</t>
-        </is>
-      </c>
+      <c r="W6" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="Z6" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1283,7 +1221,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1291,8 +1229,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE6" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1317,16 +1257,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>M042023120400000090</t>
+          <t>M042023120400000155</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>RCPA002197</t>
+          <t>RCPA000189</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1345,31 +1285,31 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2023-12-04 06:41:55</t>
+          <t>2023-12-04 07:45:01</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>RCDHL1206</t>
+          <t>RCDHL0415</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>RCSI0047</t>
+          <t>RCSI0018</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-12-04 06:54:52</t>
+          <t>2023-12-04 07:52:56</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>RCDHL1206</t>
+          <t>RCDHL0415</t>
         </is>
       </c>
       <c r="Q7" s="2" t="n">
@@ -1380,43 +1320,29 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2023-12-04 06:58:40</t>
+          <t>2023-12-04 07:57:42</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>RCDHL0348</t>
+          <t>RCDHL0222</t>
         </is>
       </c>
       <c r="U7" s="2" t="n">
         <v>-146084.533900463</v>
       </c>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:20:29</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>SPglp2WH1656</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:24:05</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:38:02</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>SPglp2WH1825</t>
-        </is>
-      </c>
+      <c r="W7" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="Z7" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1424,7 +1350,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -1432,8 +1358,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE7" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1458,16 +1386,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>M042023120400000094</t>
+          <t>M042023120400000174</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>RCPA000274</t>
+          <t>RCPA000331</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1486,31 +1414,31 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2023-12-04 06:49:48</t>
+          <t>2023-12-04 07:51:09</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>RCDHL1268</t>
+          <t>RCDHL0205</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>RCSI0075</t>
+          <t>RCSI0065</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-12-04 06:51:12</t>
+          <t>2023-12-04 07:54:02</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>RCDHL1268</t>
+          <t>RCDHL0205</t>
         </is>
       </c>
       <c r="Q8" s="2" t="n">
@@ -1521,43 +1449,29 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2023-12-04 06:54:34</t>
+          <t>2023-12-04 07:57:16</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>RCDHL0147</t>
+          <t>RCDHL0222</t>
         </is>
       </c>
       <c r="U8" s="2" t="n">
         <v>-146084.533900463</v>
       </c>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:20:40</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>SPglp2WH1656</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:32:51</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:35:31</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>SPglp2WH1700</t>
-        </is>
-      </c>
+      <c r="W8" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="Z8" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1565,7 +1479,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -1573,8 +1487,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE8" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1599,16 +1515,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>M042023120400000097</t>
+          <t>M042023120300004855</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>RCPA001444</t>
+          <t>RCBAGS0004702</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1627,31 +1543,27 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2023-12-04 06:51:53</t>
+          <t>2023-12-02 22:33:13</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>RCDHL0614</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>RCSI0020</t>
-        </is>
-      </c>
+          <t>T-sort</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-12-04 06:59:49</t>
+          <t>2023-12-02 22:57:05</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>RCDHL0614</t>
+          <t>T-sort</t>
         </is>
       </c>
       <c r="Q9" s="2" t="n">
@@ -1662,43 +1574,29 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2023-12-04 07:01:00</t>
+          <t>2023-12-04 07:54:51</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>RCDHL0324</t>
+          <t>RCDHL0713</t>
         </is>
       </c>
       <c r="U9" s="2" t="n">
         <v>-146084.533900463</v>
       </c>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:20:48</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>SPglp2WH1656</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:26:18</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:26:18</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>SPglp2WH1674</t>
-        </is>
-      </c>
+      <c r="W9" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="Z9" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1706,7 +1604,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -1714,8 +1612,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE9" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1740,16 +1640,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>M042023120300005590</t>
+          <t>M042023120400000159</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>RCPA002805</t>
+          <t>RCPA004178</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1768,16 +1668,16 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2023-12-02 23:41:30</t>
+          <t>2023-12-04 07:46:45</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>RCDHL1069</t>
+          <t>RCDHL1269</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1787,12 +1687,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-12-02 23:45:03</t>
+          <t>2023-12-04 07:51:28</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>RCDHL1069</t>
+          <t>RCDHL1269</t>
         </is>
       </c>
       <c r="Q10" s="2" t="n">
@@ -1803,12 +1703,12 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2023-12-03 00:11:47</t>
+          <t>2023-12-04 07:54:26</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>RCDHL1151</t>
+          <t>RCDHL0180</t>
         </is>
       </c>
       <c r="U10" s="2" t="n">
@@ -1817,29 +1717,21 @@
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr">
         <is>
-          <t>2023-12-04 07:21:17</t>
+          <t>2023-12-04 08:10:24</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>SPglp2WH1656</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:24:01</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:24:08</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>SPglp2WH1953</t>
-        </is>
-      </c>
+          <t>SPglp2WH1069</t>
+        </is>
+      </c>
+      <c r="Y10" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="Z10" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1847,7 +1739,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -1855,8 +1747,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE10" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1881,16 +1775,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>M042023120400000095</t>
+          <t>M042023120400000168</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>RCPA000923</t>
+          <t>RCPA001039</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1909,31 +1803,31 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2023-12-04 06:50:49</t>
+          <t>2023-12-04 07:48:19</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>RCDHL1269</t>
+          <t>RCDHL1206</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>RCSI0030</t>
+          <t>RCSI0047</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-12-04 06:55:05</t>
+          <t>2023-12-04 07:51:52</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>RCDHL1269</t>
+          <t>RCDHL1206</t>
         </is>
       </c>
       <c r="Q11" s="2" t="n">
@@ -1944,12 +1838,12 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2023-12-04 06:57:53</t>
+          <t>2023-12-04 07:54:22</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>RCDHL0348</t>
+          <t>RCDHL0180</t>
         </is>
       </c>
       <c r="U11" s="2" t="n">
@@ -1958,29 +1852,21 @@
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr">
         <is>
-          <t>2023-12-04 07:21:42</t>
+          <t>2023-12-04 08:10:45</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>SPglp2WH1656</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:23:02</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:23:02</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>SPglp2WH1950</t>
-        </is>
-      </c>
+          <t>SPglp2WH1069</t>
+        </is>
+      </c>
+      <c r="Y11" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="Z11" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1988,7 +1874,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -1996,8 +1882,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE11" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2022,16 +1910,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>M042023120400000073</t>
+          <t>M042023120400000166</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>RCPA002772</t>
+          <t>RCPA009726</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2050,31 +1938,31 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2023-12-04 05:09:24</t>
+          <t>2023-12-04 07:47:55</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>RCDHL1059</t>
+          <t>RCDHL0300</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>RCSI0048</t>
+          <t>RCSI0019</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-12-04 05:10:55</t>
+          <t>2023-12-04 07:51:57</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>RCDHL1059</t>
+          <t>RCDHL0300</t>
         </is>
       </c>
       <c r="Q12" s="2" t="n">
@@ -2085,12 +1973,12 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2023-12-04 06:24:27</t>
+          <t>2023-12-04 07:54:17</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>RCDHL0222</t>
+          <t>RCDHL0180</t>
         </is>
       </c>
       <c r="U12" s="2" t="n">
@@ -2099,29 +1987,21 @@
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr">
         <is>
-          <t>2023-12-04 07:11:59</t>
+          <t>2023-12-04 08:10:56</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>SPglp2WH1700</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:16:40</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:19:56</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>SPglp2WH1700</t>
-        </is>
-      </c>
+          <t>SPglp2WH1069</t>
+        </is>
+      </c>
+      <c r="Y12" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="Z12" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2129,7 +2009,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -2137,8 +2017,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE12" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2163,16 +2045,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>M042023120400000027</t>
+          <t>M042023120400000154</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>RCPA004835</t>
+          <t>RCPA004104</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2191,31 +2073,31 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2023-12-04 04:16:12</t>
+          <t>2023-12-04 07:44:31</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>RCDHL1107</t>
+          <t>RCDHL1251</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>RCSI0049</t>
+          <t>RCSI0015</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-12-04 04:22:48</t>
+          <t>2023-12-04 07:50:01</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>RCDHL1107</t>
+          <t>RCDHL1251</t>
         </is>
       </c>
       <c r="Q13" s="2" t="n">
@@ -2226,12 +2108,12 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2023-12-04 06:15:09</t>
+          <t>2023-12-04 07:53:34</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>RCDHL1151</t>
+          <t>RCDHL0180</t>
         </is>
       </c>
       <c r="U13" s="2" t="n">
@@ -2240,29 +2122,21 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
-          <t>2023-12-04 06:48:48</t>
+          <t>2023-12-04 08:11:11</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>SPglp2WH1656</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>2023-12-04 06:59:34</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:17:58</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>SPglp2WH1825</t>
-        </is>
-      </c>
+          <t>SPglp2WH1069</t>
+        </is>
+      </c>
+      <c r="Y13" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="Z13" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2270,7 +2144,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -2278,8 +2152,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE13" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2304,16 +2180,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>M042023120400000078</t>
+          <t>M042023120400000156</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>RCPA004202</t>
+          <t>RCPA000088</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2332,31 +2208,31 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2023-12-04 05:17:03</t>
+          <t>2023-12-04 07:45:37</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>RCDHL0251</t>
+          <t>RCDHL0326</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>RCSI0071</t>
+          <t>RCSI0090</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-12-04 05:18:48</t>
+          <t>2023-12-04 07:49:59</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>RCDHL0251</t>
+          <t>RCDHL0326</t>
         </is>
       </c>
       <c r="Q14" s="2" t="n">
@@ -2367,12 +2243,12 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2023-12-04 06:24:31</t>
+          <t>2023-12-04 07:53:29</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>RCDHL0222</t>
+          <t>RCDHL0180</t>
         </is>
       </c>
       <c r="U14" s="2" t="n">
@@ -2381,29 +2257,21 @@
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr">
         <is>
-          <t>2023-12-04 06:47:54</t>
+          <t>2023-12-04 08:11:55</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>SPglp2WH1656</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:15:59</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:15:59</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>SPglp2WH2027</t>
-        </is>
-      </c>
+          <t>SPglp2WH1069</t>
+        </is>
+      </c>
+      <c r="Y14" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="Z14" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2411,7 +2279,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
@@ -2419,8 +2287,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE14" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2445,16 +2315,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>M042023120400000075</t>
+          <t>M042023120400000132</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>RCPA000160</t>
+          <t>RCBAGS0000494</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2473,31 +2343,27 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2023-12-04 05:11:43</t>
+          <t>2023-12-04 07:29:04</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>RCDHL1080</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>RCSI0050</t>
-        </is>
-      </c>
+          <t>T-sort</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-12-04 05:12:55</t>
+          <t>2023-12-04 07:49:21</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>RCDHL1080</t>
+          <t>T-sort</t>
         </is>
       </c>
       <c r="Q15" s="2" t="n">
@@ -2508,12 +2374,12 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>2023-12-04 06:24:58</t>
+          <t>2023-12-04 07:49:27</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>RCDHL0222</t>
+          <t>RCDHL0335</t>
         </is>
       </c>
       <c r="U15" s="2" t="n">
@@ -2522,29 +2388,21 @@
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr">
         <is>
-          <t>2023-12-04 06:48:44</t>
+          <t>2023-12-04 08:12:49</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>SPglp2WH1656</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:13:13</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:15:25</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>SPglp2WH1942</t>
-        </is>
-      </c>
+          <t>SPglp2WH1069</t>
+        </is>
+      </c>
+      <c r="Y15" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="Z15" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2552,7 +2410,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
@@ -2560,8 +2418,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE15" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2586,16 +2446,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>M042023120400000029</t>
+          <t>M042023120400000144</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>RCPA003997</t>
+          <t>RCPA002174</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2614,31 +2474,31 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2023-12-04 04:18:55</t>
+          <t>2023-12-04 07:39:28</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>RCDHL0251</t>
+          <t>RCDHL1268</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>RCSI0071</t>
+          <t>RCSI0075</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-12-04 04:24:15</t>
+          <t>2023-12-04 07:43:28</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>RCDHL0251</t>
+          <t>RCDHL1268</t>
         </is>
       </c>
       <c r="Q16" s="2" t="n">
@@ -2649,12 +2509,12 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>2023-12-04 06:15:47</t>
+          <t>2023-12-04 07:47:15</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>RCDHL0222</t>
+          <t>RCDHL0335</t>
         </is>
       </c>
       <c r="U16" s="2" t="n">
@@ -2663,29 +2523,21 @@
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr">
         <is>
-          <t>2023-12-04 06:47:36</t>
+          <t>2023-12-04 08:12:06</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>SPglp2WH1656</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:15:14</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:15:14</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>SPglp2WH1949</t>
-        </is>
-      </c>
+          <t>SPglp2WH1069</t>
+        </is>
+      </c>
+      <c r="Y16" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="Z16" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2693,7 +2545,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
@@ -2701,8 +2553,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE16" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2727,16 +2581,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>M042023120400000049</t>
+          <t>M042023120400000145</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>RCPA000602</t>
+          <t>RCPA000727</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2755,31 +2609,31 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2023-12-04 04:45:41</t>
+          <t>2023-12-04 07:41:05</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>RCDHL1059</t>
+          <t>RCDHL0614</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>RCSI0048</t>
+          <t>RCSI0020</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-12-04 04:47:08</t>
+          <t>2023-12-04 07:44:06</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>RCDHL1059</t>
+          <t>RCDHL0614</t>
         </is>
       </c>
       <c r="Q17" s="2" t="n">
@@ -2790,12 +2644,12 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2023-12-04 06:25:08</t>
+          <t>2023-12-04 07:47:12</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>RCDHL0222</t>
+          <t>RCDHL0335</t>
         </is>
       </c>
       <c r="U17" s="2" t="n">
@@ -2804,29 +2658,21 @@
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr">
         <is>
-          <t>2023-12-04 06:48:13</t>
+          <t>2023-12-04 08:13:04</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>SPglp2WH1656</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:15:07</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:15:07</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>SPglp2WH1975</t>
-        </is>
-      </c>
+          <t>SPglp2WH1069</t>
+        </is>
+      </c>
+      <c r="Y17" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="Z17" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2834,7 +2680,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
@@ -2842,8 +2688,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE17" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2868,16 +2716,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>M042023120400000021</t>
+          <t>M042023120400000139</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>RCPA001901</t>
+          <t>RCPA003121</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2896,31 +2744,31 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2023-12-04 00:36:21</t>
+          <t>2023-12-04 07:36:07</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>RCDHL1107</t>
+          <t>RCDHL1248</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>RCSI0049</t>
+          <t>RCSI0013</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-12-04 00:41:21</t>
+          <t>2023-12-04 07:40:45</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>RCDHL1107</t>
+          <t>RCDHL1248</t>
         </is>
       </c>
       <c r="Q18" s="2" t="n">
@@ -2931,12 +2779,12 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2023-12-04 06:14:48</t>
+          <t>2023-12-04 07:47:04</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>RCDHL1151</t>
+          <t>RCDHL0335</t>
         </is>
       </c>
       <c r="U18" s="2" t="n">
@@ -2945,29 +2793,21 @@
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr">
         <is>
-          <t>2023-12-04 06:44:26</t>
+          <t>2023-12-04 08:13:18</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>SPglp2WH1656</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>2023-12-04 06:57:02</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:14:50</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>SPglp2WH1674</t>
-        </is>
-      </c>
+          <t>SPglp2WH1069</t>
+        </is>
+      </c>
+      <c r="Y18" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="Z18" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2975,7 +2815,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
@@ -2983,8 +2823,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE18" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -3009,16 +2851,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>M042023120400000045</t>
+          <t>M042023120400000136</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>RCPA000156</t>
+          <t>RCPA004191</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3037,31 +2879,31 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2023-12-04 04:41:00</t>
+          <t>2023-12-04 07:32:36</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>RCDHL0251</t>
+          <t>RCDHL1206</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>RCSI0071</t>
+          <t>RCSI0047</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-12-04 04:43:29</t>
+          <t>2023-12-04 07:38:36</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>RCDHL0251</t>
+          <t>RCDHL1206</t>
         </is>
       </c>
       <c r="Q19" s="2" t="n">
@@ -3072,12 +2914,12 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>2023-12-04 06:25:15</t>
+          <t>2023-12-04 07:42:39</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>RCDHL0222</t>
+          <t>RCDHL0366</t>
         </is>
       </c>
       <c r="U19" s="2" t="n">
@@ -3086,29 +2928,21 @@
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr">
         <is>
-          <t>2023-12-04 06:47:28</t>
+          <t>2023-12-04 08:11:57</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>SPglp2WH1656</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:14:35</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:14:35</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>SPglp2WH1412</t>
-        </is>
-      </c>
+          <t>SPglp2WH1069</t>
+        </is>
+      </c>
+      <c r="Y19" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="Z19" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3116,7 +2950,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
@@ -3124,8 +2958,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE19" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -3150,16 +2986,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>M042023120400000066</t>
+          <t>M042023120400000137</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>RCPA008803</t>
+          <t>RCPA002187</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3178,31 +3014,31 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2023-12-04 05:03:55</t>
+          <t>2023-12-04 07:34:56</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>RCDHL1080</t>
+          <t>RCDHL1269</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>RCSI0050</t>
+          <t>RCSI0030</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-12-04 05:06:29</t>
+          <t>2023-12-04 07:39:51</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>RCDHL1080</t>
+          <t>RCDHL1269</t>
         </is>
       </c>
       <c r="Q20" s="2" t="n">
@@ -3213,12 +3049,12 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>2023-12-04 06:15:58</t>
+          <t>2023-12-04 07:41:59</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>RCDHL0222</t>
+          <t>RCDHL0348</t>
         </is>
       </c>
       <c r="U20" s="2" t="n">
@@ -3227,29 +3063,21 @@
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr">
         <is>
-          <t>2023-12-04 06:49:00</t>
+          <t>2023-12-04 08:13:21</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>SPglp2WH1656</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:06:46</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:11:30</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>SPglp2WH1412</t>
-        </is>
-      </c>
+          <t>SPglp2WH1069</t>
+        </is>
+      </c>
+      <c r="Y20" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="Z20" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3257,7 +3085,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
@@ -3265,8 +3093,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE20" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -3291,16 +3121,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>M042023120400000032</t>
+          <t>M042023120400000125</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>RCPA008742</t>
+          <t>RCBAGS0022678</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3319,31 +3149,27 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2023-12-04 04:25:39</t>
+          <t>2023-12-04 07:22:33</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>RCDHL0251</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>RCSI0071</t>
-        </is>
-      </c>
+          <t>T-sort</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-12-04 04:31:17</t>
+          <t>2023-12-04 07:28:48</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>RCDHL0251</t>
+          <t>T-sort</t>
         </is>
       </c>
       <c r="Q21" s="2" t="n">
@@ -3354,12 +3180,12 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>2023-12-04 06:15:43</t>
+          <t>2023-12-04 07:37:01</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>RCDHL0222</t>
+          <t>RCDHL0335</t>
         </is>
       </c>
       <c r="U21" s="2" t="n">
@@ -3368,29 +3194,21 @@
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr">
         <is>
-          <t>2023-12-04 06:48:57</t>
+          <t>2023-12-04 08:12:58</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>SPglp2WH1656</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:10:51</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:10:51</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>SPglp2WH1953</t>
-        </is>
-      </c>
+          <t>SPglp2WH1069</t>
+        </is>
+      </c>
+      <c r="Y21" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="Z21" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3398,7 +3216,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
@@ -3406,8 +3224,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE21" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -3432,16 +3252,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>M042023120400000077</t>
+          <t>M042023120400000128</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>RCPA004933</t>
+          <t>RCPA000262</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3460,31 +3280,31 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2023-12-04 05:14:13</t>
+          <t>2023-12-04 07:26:25</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>RCDHL1080</t>
+          <t>RCDHL0300</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>RCSI0050</t>
+          <t>RCSI0019</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-12-04 05:15:19</t>
+          <t>2023-12-04 07:31:09</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>RCDHL1080</t>
+          <t>RCDHL0300</t>
         </is>
       </c>
       <c r="Q22" s="2" t="n">
@@ -3495,12 +3315,12 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>2023-12-04 06:24:36</t>
+          <t>2023-12-04 07:34:35</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>RCDHL0222</t>
+          <t>RCDHL0137</t>
         </is>
       </c>
       <c r="U22" s="2" t="n">
@@ -3509,7 +3329,7 @@
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr">
         <is>
-          <t>2023-12-04 06:52:33</t>
+          <t>2023-12-04 07:47:44</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -3517,21 +3337,13 @@
           <t>SPglp2WH1656</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:08:58</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:09:59</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>SPglp2WH1180</t>
-        </is>
-      </c>
+      <c r="Y22" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="Z22" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3539,7 +3351,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
@@ -3547,8 +3359,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE22" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -3573,16 +3387,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>M042023120400000071</t>
+          <t>M042023120400000119</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>RCPA003724</t>
+          <t>RCPA002481</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3601,31 +3415,31 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2023-12-04 05:07:58</t>
+          <t>2023-12-04 07:16:19</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>RCDHL1080</t>
+          <t>RCDHL1269</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>RCSI0050</t>
+          <t>RCSI0030</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-12-04 05:10:04</t>
+          <t>2023-12-04 07:27:52</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>RCDHL1080</t>
+          <t>RCDHL1269</t>
         </is>
       </c>
       <c r="Q23" s="2" t="n">
@@ -3636,12 +3450,12 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>2023-12-04 06:24:21</t>
+          <t>2023-12-04 07:31:02</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>RCDHL0222</t>
+          <t>RCDHL0348</t>
         </is>
       </c>
       <c r="U23" s="2" t="n">
@@ -3650,7 +3464,7 @@
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr">
         <is>
-          <t>2023-12-04 06:45:29</t>
+          <t>2023-12-04 07:47:59</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
@@ -3660,17 +3474,17 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-12-04 07:07:11</t>
+          <t>2023-12-04 07:52:27</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2023-12-04 07:09:58</t>
+          <t>2023-12-04 07:52:27</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>SPglp2WH1700</t>
+          <t>SPglp2WH1975</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3680,7 +3494,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
@@ -3688,8 +3502,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE23" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -3714,16 +3530,16 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>M042023120400000052</t>
+          <t>M042023120400000122</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>RCPA001736</t>
+          <t>RCPA003928</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3742,31 +3558,31 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2023-12-04 04:49:53</t>
+          <t>2023-12-04 07:18:33</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>RCDHL1059</t>
+          <t>RCDHL1206</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>RCSI0048</t>
+          <t>RCSI0047</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-12-04 04:51:24</t>
+          <t>2023-12-04 07:25:17</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>RCDHL1059</t>
+          <t>RCDHL1206</t>
         </is>
       </c>
       <c r="Q24" s="2" t="n">
@@ -3777,12 +3593,12 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>2023-12-04 06:25:22</t>
+          <t>2023-12-04 07:27:13</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>RCDHL0222</t>
+          <t>RCDHL0335</t>
         </is>
       </c>
       <c r="U24" s="2" t="n">
@@ -3791,7 +3607,7 @@
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr">
         <is>
-          <t>2023-12-04 06:46:50</t>
+          <t>2023-12-04 07:48:11</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
@@ -3801,17 +3617,17 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-12-04 07:09:41</t>
+          <t>2023-12-04 07:59:43</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2023-12-04 07:09:41</t>
+          <t>2023-12-04 08:02:46</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>SPglp2WH2027</t>
+          <t>SPglp2WH1674</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3821,7 +3637,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
@@ -3829,8 +3645,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE24" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3855,16 +3673,16 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>M042023120400000063</t>
+          <t>M042023120400000121</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>RCPA003726</t>
+          <t>RCBAGS0004273</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3883,31 +3701,27 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2023-12-04 05:01:06</t>
+          <t>2023-12-04 07:17:52</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>RCDHL0251</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>RCSI0071</t>
-        </is>
-      </c>
+          <t>T-sort</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-12-04 05:03:58</t>
+          <t>2023-12-04 07:22:07</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>RCDHL0251</t>
+          <t>T-sort</t>
         </is>
       </c>
       <c r="Q25" s="2" t="n">
@@ -3918,12 +3732,12 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>2023-12-04 06:22:10</t>
+          <t>2023-12-04 07:25:42</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>RCDHL0222</t>
+          <t>RCDHL0366</t>
         </is>
       </c>
       <c r="U25" s="2" t="n">
@@ -3932,7 +3746,7 @@
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr">
         <is>
-          <t>2023-12-04 06:45:36</t>
+          <t>2023-12-04 07:47:23</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
@@ -3942,17 +3756,17 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2023-12-04 07:03:20</t>
+          <t>2023-12-04 07:56:51</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2023-12-04 07:08:07</t>
+          <t>2023-12-04 08:00:23</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>SPglp2WH1942</t>
+          <t>SPglp2WH1412</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -3962,7 +3776,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
@@ -3970,8 +3784,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE25" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3996,16 +3812,16 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>M042023120400000080</t>
+          <t>M042023120400000112</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>RCPA014839</t>
+          <t>RCBAGS0021511</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -4024,31 +3840,27 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2023-12-04 05:17:24</t>
+          <t>2023-12-04 07:11:15</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>RCDHL1080</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>RCSI0050</t>
-        </is>
-      </c>
+          <t>T-sort</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-12-04 05:18:03</t>
+          <t>2023-12-04 07:17:32</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>RCDHL1080</t>
+          <t>T-sort</t>
         </is>
       </c>
       <c r="Q26" s="2" t="n">
@@ -4059,12 +3871,12 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>2023-12-04 06:14:44</t>
+          <t>2023-12-04 07:25:38</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>RCDHL1151</t>
+          <t>RCDHL0366</t>
         </is>
       </c>
       <c r="U26" s="2" t="n">
@@ -4073,7 +3885,7 @@
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr">
         <is>
-          <t>2023-12-04 06:52:42</t>
+          <t>2023-12-04 07:47:25</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
@@ -4083,17 +3895,17 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-12-04 07:06:36</t>
+          <t>2023-12-04 07:53:54</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2023-12-04 07:08:00</t>
+          <t>2023-12-04 07:56:13</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>SPglp2WH1178</t>
+          <t>SPglp2WH1412</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -4103,7 +3915,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
@@ -4111,8 +3923,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE26" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -4137,16 +3951,16 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>M042023120400000076</t>
+          <t>M042023120400000117</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>RCPA002780</t>
+          <t>RCPA001978</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -4165,31 +3979,31 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2023-12-04 05:12:54</t>
+          <t>2023-12-04 07:15:01</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>RCDHL1059</t>
+          <t>RCDHL0300</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>RCSI0048</t>
+          <t>RCSI0019</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-12-04 05:14:18</t>
+          <t>2023-12-04 07:18:04</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>RCDHL1059</t>
+          <t>RCDHL0300</t>
         </is>
       </c>
       <c r="Q27" s="2" t="n">
@@ -4200,12 +4014,12 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>2023-12-04 06:14:32</t>
+          <t>2023-12-04 07:22:10</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>RCDHL1151</t>
+          <t>RCDHL0348</t>
         </is>
       </c>
       <c r="U27" s="2" t="n">
@@ -4214,7 +4028,7 @@
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr">
         <is>
-          <t>2023-12-04 06:53:36</t>
+          <t>2023-12-04 07:48:23</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
@@ -4224,17 +4038,17 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-12-04 07:03:43</t>
+          <t>2023-12-04 07:51:50</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2023-12-04 07:06:20</t>
+          <t>2023-12-04 07:53:31</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>SPglp2WH846</t>
+          <t>SPglp2WH1953</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -4244,7 +4058,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
@@ -4252,8 +4066,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE27" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -4278,16 +4094,16 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>M042023120400000079</t>
+          <t>M042023120400000101</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>RCPA001783</t>
+          <t>RCPA001190</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -4306,31 +4122,31 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2023-12-04 05:17:04</t>
+          <t>2023-12-04 07:00:48</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>RCDHL1059</t>
+          <t>RCDHL1248</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>RCSI0048</t>
+          <t>RCSI0013</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-12-04 05:17:44</t>
+          <t>2023-12-04 07:11:55</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>RCDHL1059</t>
+          <t>RCDHL1248</t>
         </is>
       </c>
       <c r="Q28" s="2" t="n">
@@ -4341,12 +4157,12 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>2023-12-04 06:17:05</t>
+          <t>2023-12-04 07:15:45</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>RCDHL0222</t>
+          <t>RCDHL0366</t>
         </is>
       </c>
       <c r="U28" s="2" t="n">
@@ -4355,7 +4171,7 @@
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr">
         <is>
-          <t>2023-12-04 06:53:12</t>
+          <t>2023-12-04 07:48:46</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
@@ -4365,17 +4181,17 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2023-12-04 07:02:51</t>
+          <t>2023-12-04 07:49:59</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2023-12-04 07:04:51</t>
+          <t>2023-12-04 07:49:59</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>SPglp2WH1194</t>
+          <t>SPglp2WH1949</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -4385,7 +4201,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
@@ -4393,8 +4209,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE28" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -4419,16 +4237,16 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>M042023120400000081</t>
+          <t>M042023120400000099</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>RCPA000108</t>
+          <t>RCBAGS0039716</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -4447,31 +4265,27 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2023-12-04 05:20:20</t>
+          <t>2023-12-04 06:59:49</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>RCDHL1080</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>RCSI0050</t>
-        </is>
-      </c>
+          <t>T-sort</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-12-04 05:20:46</t>
+          <t>2023-12-04 07:03:24</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>RCDHL1080</t>
+          <t>T-sort</t>
         </is>
       </c>
       <c r="Q29" s="2" t="n">
@@ -4482,12 +4296,12 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>2023-12-04 06:25:02</t>
+          <t>2023-12-04 07:14:59</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>RCDHL0222</t>
+          <t>RCDHL0366</t>
         </is>
       </c>
       <c r="U29" s="2" t="n">
@@ -4496,7 +4310,7 @@
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr">
         <is>
-          <t>2023-12-04 06:52:23</t>
+          <t>2023-12-04 07:47:07</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
@@ -4506,17 +4320,17 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-12-04 07:02:53</t>
+          <t>2023-12-04 08:02:40</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2023-12-04 07:04:24</t>
+          <t>2023-12-04 08:07:38</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>SPglp2WH1178</t>
+          <t>SPglp2WH1412</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -4526,7 +4340,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
@@ -4534,8 +4348,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE29" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -4560,16 +4376,16 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>M042023120400000050</t>
+          <t>M042023120400000108</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>RCPA003978</t>
+          <t>RCPA001020</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -4588,31 +4404,31 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2023-12-04 04:46:22</t>
+          <t>2023-12-04 07:06:08</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>RCDHL0251</t>
+          <t>RCDHL1206</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>RCSI0071</t>
+          <t>RCSI0047</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-12-04 04:49:09</t>
+          <t>2023-12-04 07:14:10</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>RCDHL0251</t>
+          <t>RCDHL1206</t>
         </is>
       </c>
       <c r="Q30" s="2" t="n">
@@ -4623,12 +4439,12 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>2023-12-04 06:14:29</t>
+          <t>2023-12-04 07:14:53</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>RCDHL1151</t>
+          <t>RCDHL0147</t>
         </is>
       </c>
       <c r="U30" s="2" t="n">
@@ -4637,7 +4453,7 @@
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr">
         <is>
-          <t>2023-12-04 06:45:48</t>
+          <t>2023-12-04 07:49:13</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
@@ -4647,17 +4463,17 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-12-04 07:03:57</t>
+          <t>2023-12-04 07:54:06</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2023-12-04 07:03:57</t>
+          <t>2023-12-04 07:57:49</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>SPglp2WH1950</t>
+          <t>SPglp2WH1942</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -4667,7 +4483,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
@@ -4675,8 +4491,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE30" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -4701,16 +4519,16 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>M042023120400000054</t>
+          <t>M042023120400000093</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>RCPA000593</t>
+          <t>RCBAGS0031580</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -4729,31 +4547,27 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2023-12-04 04:50:56</t>
+          <t>2023-12-04 06:48:48</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>RCDHL0251</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>RCSI0071</t>
-        </is>
-      </c>
+          <t>T-sort</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-12-04 04:54:06</t>
+          <t>2023-12-04 06:56:04</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>RCDHL0251</t>
+          <t>T-sort</t>
         </is>
       </c>
       <c r="Q31" s="2" t="n">
@@ -4764,12 +4578,12 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>2023-12-04 06:20:53</t>
+          <t>2023-12-04 07:11:06</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>RCDHL0222</t>
+          <t>RCDHL0335</t>
         </is>
       </c>
       <c r="U31" s="2" t="n">
@@ -4778,7 +4592,7 @@
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr">
         <is>
-          <t>2023-12-04 06:45:10</t>
+          <t>2023-12-04 07:47:03</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
@@ -4788,17 +4602,15 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2023-12-04 06:59:32</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:02:59</t>
-        </is>
+          <t>2023-12-04 08:12:57</t>
+        </is>
+      </c>
+      <c r="Z31" s="2" t="n">
+        <v>-146084.533900463</v>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>SPglp2WH1700</t>
+          <t>SPglp2WH1412</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4808,7 +4620,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
@@ -4816,8 +4628,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE31" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -4842,16 +4656,16 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>M042023120400000068</t>
+          <t>M042023120400000105</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>RCPA000606</t>
+          <t>RCBAGS0000543</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -4870,31 +4684,27 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2023-12-04 05:04:56</t>
+          <t>2023-12-04 07:03:47</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>RCDHL1059</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>RCSI0048</t>
-        </is>
-      </c>
+          <t>T-sort</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-12-04 05:06:30</t>
+          <t>2023-12-04 07:05:26</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>RCDHL1059</t>
+          <t>T-sort</t>
         </is>
       </c>
       <c r="Q32" s="2" t="n">
@@ -4905,12 +4715,12 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>2023-12-04 06:22:35</t>
+          <t>2023-12-04 07:11:05</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>RCDHL0222</t>
+          <t>RCDHL0366</t>
         </is>
       </c>
       <c r="U32" s="2" t="n">
@@ -4919,7 +4729,7 @@
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr">
         <is>
-          <t>2023-12-04 06:45:39</t>
+          <t>2023-12-04 07:47:05</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
@@ -4929,12 +4739,12 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-12-04 07:01:09</t>
+          <t>2023-12-04 08:08:29</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2023-12-04 07:02:40</t>
+          <t>2023-12-04 08:11:13</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4949,7 +4759,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
@@ -4957,8 +4767,10 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE32" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -4983,16 +4795,16 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>M042023120400000082</t>
+          <t>M042023120400000107</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>RCPA003164</t>
+          <t>RCBAGS0029472</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -5011,31 +4823,27 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2023-12-04 05:20:32</t>
+          <t>2023-12-04 07:05:49</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>RCDHL1059</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>RCSI0048</t>
-        </is>
-      </c>
+          <t>T-sort</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-12-04 05:21:23</t>
+          <t>2023-12-04 07:09:17</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>RCDHL1059</t>
+          <t>T-sort</t>
         </is>
       </c>
       <c r="Q33" s="2" t="n">
@@ -5046,12 +4854,12 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>2023-12-04 06:26:35</t>
+          <t>2023-12-04 07:11:04</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>RCDHL0222</t>
+          <t>RCDHL0335</t>
         </is>
       </c>
       <c r="U33" s="2" t="n">
@@ -5060,7 +4868,7 @@
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr">
         <is>
-          <t>2023-12-04 06:52:07</t>
+          <t>2023-12-04 07:46:57</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
@@ -5068,21 +4876,13 @@
           <t>SPglp2WH1656</t>
         </is>
       </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:00:53</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>2023-12-04 07:00:53</t>
-        </is>
-      </c>
-      <c r="AA33" t="inlineStr">
-        <is>
-          <t>SPglp2WH1180</t>
-        </is>
-      </c>
+      <c r="Y33" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="Z33" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5090,7 +4890,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>rc_management</t>
+          <t>shipping_time</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
@@ -5098,8 +4898,153 @@
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="AE33" s="2" t="n">
-        <v>45264.29166666666</v>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>BR_GRU_RC_A</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>RC01</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>BR_GRU_SW 2</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>M04</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>27</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>M042023120400000097</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>RCPA001444</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Combined Shipment</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>No forecast required</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>18</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>2023-12-04 06:51:53</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>RCDHL0614</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>RCSI0020</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>2023-12-04 06:59:49</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>RCDHL0614</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="R34" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>2023-12-04 07:01:00</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>RCDHL0324</t>
+        </is>
+      </c>
+      <c r="U34" s="2" t="n">
+        <v>-146084.533900463</v>
+      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>2023-12-04 07:20:48</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>SPglp2WH1656</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-12-04 07:26:18</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>2023-12-04 07:26:18</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>SPglp2WH1674</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>shipping_time</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>2023-12-04 08:17:10</t>
+        </is>
       </c>
     </row>
   </sheetData>
